--- a/03スプリントバックログ/Scrum4_スプリントバックログ第3回.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ第3回.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2736BC73-ECA5-42EF-BAAE-823EBC102D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F98B35A-2026-44C1-ABBF-2FD1842A6A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="スプリント計画（機能２）" sheetId="7" r:id="rId3"/>
     <sheet name="スプリント計画（機能3)" sheetId="8" r:id="rId4"/>
     <sheet name="スプリント計画（機能4)" sheetId="9" r:id="rId5"/>
+    <sheet name="スプリント計画（機能5) " sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第2スプリント)'!$2:$2</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -151,20 +152,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>藤原</t>
-    <rPh sb="0" eb="2">
-      <t>フジワラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山根</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマネ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>中井</t>
     <rPh sb="0" eb="2">
       <t>ナカイ</t>
@@ -193,98 +180,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規投稿（画像、動画、文字、＃、地域）</t>
-    <rPh sb="0" eb="4">
-      <t>シンキトウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像、動画、文字、＃、地域を記事として登録</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイコン、名前、紹介文など登録</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規登録</t>
-    <rPh sb="0" eb="4">
-      <t>シンキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザの新規登録</t>
-  </si>
-  <si>
     <t>フロントエンド</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>バックエンド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォロー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロフィール登録・編集</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿者のプロフィールからフォロー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能名：新規投稿</t>
-    <rPh sb="0" eb="3">
-      <t>キノウメイ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>シンキトウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能名：新規登録</t>
-    <rPh sb="0" eb="3">
-      <t>キノウメイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能名：フォロー</t>
-    <rPh sb="0" eb="3">
-      <t>キノウメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能名：プロフィール編集</t>
-    <rPh sb="0" eb="3">
-      <t>キノウメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山西</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマニシ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -295,56 +195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>藤原</t>
-    <rPh sb="0" eb="2">
-      <t>フジワラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像の枚数カウント</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>マイスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像を保存</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規登録画面のフロントエンド作成</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>トウロクガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロフィール画面のフロントエンド作成</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フォローボタンのある画面のフロントエンド作成</t>
     <rPh sb="10" eb="12">
       <t>ガメン</t>
@@ -366,124 +216,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規投稿画面のフロントエンド作成</t>
-    <rPh sb="0" eb="6">
-      <t>シンキトウコウガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像以外の本文、地域、ハッシュタを保存</t>
-    <rPh sb="0" eb="4">
-      <t>ガゾウイガイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホンブン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チイキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像の処理をする</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー情報の登録</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変更したプロフィールの情報の登録</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録してあるプロフィールの情報の呼び出し</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォローボタン押したらDBに設定する</t>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>それを表示</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6,13,14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90%(アイコン)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2日</t>
     <rPh sb="1" eb="2">
       <t>ニチ</t>
@@ -491,16 +223,161 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3日</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1日</t>
     <rPh sb="1" eb="2">
       <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿保存機能</t>
+    <rPh sb="0" eb="6">
+      <t>トウコウホゾンキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿表示、投稿詳細でアイコンクリックしてカウントアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿詳細でコメントを入れる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者のプロフィールからDMボタンでDM入力画面に遷移</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存したい投稿にマークし、それを表示する機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名：いいね</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名：返信</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名：DM</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名：投稿保存機能</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="10">
+      <t>トウコウホゾンキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿詳細表示</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウショウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された投稿の詳細を表示。画像、動画、文字、＃、地域　等詳細を表示。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名：投稿詳細表示</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="10">
+      <t>トウコウショウサイヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿詳細画面のフロントエンド作成</t>
+    <rPh sb="0" eb="6">
+      <t>トウコウショウサイガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいね機能のフロントエンド作成</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信機能のフロントエンド作成</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中井</t>
+    <rPh sb="0" eb="2">
+      <t>ナカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿保存機能のフロントエンド作成</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -622,13 +499,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,7 +790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
@@ -929,10 +808,10 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -953,77 +832,77 @@
     </row>
     <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1">
-        <v>6</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
+      <c r="A7" s="1">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="40" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
@@ -1051,173 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
-  <cols>
-    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="40" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="40" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="40" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="40" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="40" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="40" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="40" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="40" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="40" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="40" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="40" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="40" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1232,7 +946,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="5"/>
@@ -1251,74 +965,70 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>51</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>43</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
-      <c r="A6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
-      <c r="A8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1359,11 +1069,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3909497-B355-4B79-B191-F012123903EB}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0"/>
+    <sheetView zoomScale="62" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
@@ -1377,7 +1089,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="5"/>
@@ -1396,72 +1108,54 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8"/>
@@ -1512,11 +1206,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67616659-F6AB-4215-8818-4C85054E855C}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3909497-B355-4B79-B191-F012123903EB}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0"/>
+    <sheetView zoomScale="63" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
@@ -1530,7 +1226,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="5"/>
@@ -1549,72 +1245,56 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>46</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8"/>
@@ -1663,4 +1343,284 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67616659-F6AB-4215-8818-4C85054E855C}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="40" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="40" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="40" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="40" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="40" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="40" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF85AC0A-0513-4172-A4F6-1851AD384455}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="40" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="40" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="40" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="40" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="40" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="40" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/03スプリントバックログ/Scrum4_スプリントバックログ第3回.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ第3回.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F98B35A-2026-44C1-ABBF-2FD1842A6A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4588EAA-4F3C-C04D-9B57-1D10E13EDC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -378,6 +378,84 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前や投稿内容などを取ってきて表示</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トッテキテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシッン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押すとカウントを増やして表示</t>
+    <rPh sb="0" eb="1">
+      <t>オスト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フヤセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信の返信ができるようにする</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシッン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dmをしている人の一覧を表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャットの中身を書く</t>
+    <rPh sb="5" eb="7">
+      <t>ナカミウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存する機能</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾッン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面で表示させる</t>
+    <rPh sb="6" eb="8">
+      <t>ガメンデ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -790,11 +868,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="164" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
@@ -930,11 +1008,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1002,7 +1080,9 @@
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1011,7 +1091,9 @@
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1020,7 +1102,9 @@
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1029,7 +1113,9 @@
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1074,10 +1160,10 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1145,7 +1231,9 @@
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1210,11 +1298,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3909497-B355-4B79-B191-F012123903EB}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1282,7 +1370,9 @@
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1291,7 +1381,9 @@
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1353,7 +1445,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1421,7 +1513,9 @@
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1430,7 +1524,9 @@
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1488,11 +1584,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF85AC0A-0513-4172-A4F6-1851AD384455}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1562,7 +1658,9 @@
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1571,7 +1669,9 @@
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>

--- a/03スプリントバックログ/Scrum4_スプリントバックログ第3回.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ第3回.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4588EAA-4F3C-C04D-9B57-1D10E13EDC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E6AAC1-A5C9-E044-AA6C-1EB77C6C591F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="スプリント計画（機能3)" sheetId="8" r:id="rId4"/>
     <sheet name="スプリント計画（機能4)" sheetId="9" r:id="rId5"/>
     <sheet name="スプリント計画（機能5) " sheetId="10" r:id="rId6"/>
+    <sheet name="スプリント計画（機能6) " sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第2スプリント)'!$2:$2</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="62">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -457,6 +458,92 @@
     <rPh sb="9" eb="11">
       <t>ヒョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索（アカウント検索、ハッシュタグ検索、地域検索）</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューから起動され各種検索を行う、検索にヒットした投稿が一覧表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名：検索</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント検索</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュタグ検索</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域検索</t>
+    <rPh sb="0" eb="4">
+      <t>チイキケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山西</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマニセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山根</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2日</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -868,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="C1" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -984,10 +1071,18 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
   </sheetData>
@@ -1009,7 +1104,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1083,8 +1178,12 @@
       <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
@@ -1094,8 +1193,12 @@
       <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
@@ -1105,8 +1208,12 @@
       <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
@@ -1116,8 +1223,12 @@
       <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1">
@@ -1160,7 +1271,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1234,8 +1345,12 @@
       <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
@@ -1298,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3909497-B355-4B79-B191-F012123903EB}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1373,8 +1488,12 @@
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
@@ -1384,8 +1503,12 @@
       <c r="B6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
@@ -1442,7 +1565,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E3" sqref="E3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1492,7 +1615,9 @@
       <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
@@ -1507,7 +1632,9 @@
       <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -1516,9 +1643,15 @@
       <c r="B5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -1527,9 +1660,15 @@
       <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8"/>
@@ -1584,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF85AC0A-0513-4172-A4F6-1851AD384455}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1661,8 +1800,12 @@
       <c r="B5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
@@ -1672,8 +1815,12 @@
       <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
@@ -1723,4 +1870,165 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE446DA-80CE-E742-8C38-61D2E9C4938C}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="40" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="40" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="40" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="40" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="40" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="40" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/03スプリントバックログ/Scrum4_スプリントバックログ第3回.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ第3回.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E6AAC1-A5C9-E044-AA6C-1EB77C6C591F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A565ACDE-DB01-604D-835F-F674470ACA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="65">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -544,6 +544,21 @@
   </si>
   <si>
     <t>2日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストをする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤原</t>
+    <rPh sb="0" eb="2">
+      <t>フジワラ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -955,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A2" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1104,7 +1119,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1232,10 +1247,18 @@
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="40" customHeight="1">
@@ -1270,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1354,10 +1377,18 @@
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
@@ -1413,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3909497-B355-4B79-B191-F012123903EB}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1512,10 +1543,18 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
@@ -1564,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67616659-F6AB-4215-8818-4C85054E855C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E6"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1671,10 +1710,18 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
@@ -1724,7 +1771,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1824,10 +1871,18 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
@@ -1877,7 +1932,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1992,10 +2047,18 @@
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1">

--- a/03スプリントバックログ/Scrum4_スプリントバックログ第3回.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ第3回.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A565ACDE-DB01-604D-835F-F674470ACA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBEB1DE-E2EE-EE4F-8EFA-EAE7928C02E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -15,6 +15,8 @@
     <sheet name="スプリント計画（機能4)" sheetId="9" r:id="rId5"/>
     <sheet name="スプリント計画（機能5) " sheetId="10" r:id="rId6"/>
     <sheet name="スプリント計画（機能6) " sheetId="11" r:id="rId7"/>
+    <sheet name="スプリント計画（機能7) " sheetId="13" r:id="rId8"/>
+    <sheet name="スプリント計画（機能8)" sheetId="14" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第2スプリント)'!$2:$2</definedName>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -522,7 +524,16 @@
   </si>
   <si>
     <t>5日</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6日</t>
+  </si>
+  <si>
+    <t>7日</t>
   </si>
   <si>
     <t>山西</t>
@@ -560,6 +571,243 @@
       <t>フジワラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他人プロフィールと各機能の結合</t>
+    <rPh sb="0" eb="2">
+      <t>タニn</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿表示機能と各画面の結合</t>
+    <rPh sb="0" eb="6">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カクガメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他人プロフィール画面に各機能を結合させる</t>
+    <rPh sb="0" eb="2">
+      <t>タニn</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カクキノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面投稿が表示される画面に投稿を表示させる</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンガメn</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名：他人プロフィールと各機能の結合</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名：投稿表示機能と各画面の結合</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他人プロフィール作成</t>
+    <rPh sb="0" eb="2">
+      <t>タニn</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他人プロフィールとFF機能</t>
+    <rPh sb="0" eb="1">
+      <t>タニn</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他人プロフィールと投稿表示</t>
+    <rPh sb="0" eb="2">
+      <t>タニn</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他人プロフィールとDM機能</t>
+    <rPh sb="0" eb="2">
+      <t>タニn</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他人プロフィールと投稿詳細</t>
+    <rPh sb="0" eb="2">
+      <t>タニn</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トウコウス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿、表示のコードを一部改善</t>
+    <rPh sb="0" eb="1">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイゼn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿表示のやり方を確定させる（サイト内の通信量に問題が起きそうだから）</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ツウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面に実装</t>
+    <rPh sb="3" eb="5">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面に実装</t>
+    <rPh sb="6" eb="8">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果画面に実装</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他人プロフィール画面に実装</t>
+    <rPh sb="0" eb="2">
+      <t>タニn</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿詳細画面に実装</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山西</t>
+    <rPh sb="0" eb="1">
+      <t>ヤマニセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4日</t>
   </si>
 </sst>
 </file>
@@ -968,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1099,6 +1347,28 @@
         <v>52</v>
       </c>
       <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="20">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="20">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1194,10 +1464,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -1209,10 +1479,10 @@
         <v>22</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -1224,10 +1494,10 @@
         <v>44</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -1239,25 +1509,25 @@
         <v>43</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E9" s="8"/>
     </row>
@@ -1369,25 +1639,25 @@
         <v>45</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -1520,10 +1790,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -1535,25 +1805,25 @@
         <v>46</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -1603,7 +1873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67616659-F6AB-4215-8818-4C85054E855C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1683,10 +1953,10 @@
         <v>47</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>13</v>
@@ -1700,10 +1970,10 @@
         <v>48</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>13</v>
@@ -1711,16 +1981,16 @@
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -1848,10 +2118,10 @@
         <v>49</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -1863,25 +2133,25 @@
         <v>50</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -2009,10 +2279,10 @@
         <v>54</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -2024,10 +2294,10 @@
         <v>55</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -2039,25 +2309,25 @@
         <v>56</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -2094,4 +2364,350 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF442F8-7510-B949-BB4C-22238B1A9E15}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="40" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="40" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="40" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="40" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="40" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="40" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17476A41-6442-264C-8BBB-69EADF5DD822}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="136" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="40" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="40" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="40" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="40" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="40" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="40" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/03スプリントバックログ/Scrum4_スプリントバックログ第3回.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ第3回.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBEB1DE-E2EE-EE4F-8EFA-EAE7928C02E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C9D950-0E8D-D340-8780-E9BFD36FAA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -2531,7 +2531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17476A41-6442-264C-8BBB-69EADF5DD822}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="136" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/03スプリントバックログ/Scrum4_スプリントバックログ第3回.xlsx
+++ b/03スプリントバックログ/Scrum4_スプリントバックログ第3回.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C9D950-0E8D-D340-8780-E9BFD36FAA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1B8B8F-FAE5-4B9D-9A52-8E63244B0355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
+    <sheet name="スプリントバックログ (第3スプリント)" sheetId="3" r:id="rId1"/>
     <sheet name="スプリント計画（機能１）" sheetId="4" r:id="rId2"/>
     <sheet name="スプリント計画（機能２）" sheetId="7" r:id="rId3"/>
     <sheet name="スプリント計画（機能3)" sheetId="8" r:id="rId4"/>
@@ -19,7 +19,7 @@
     <sheet name="スプリント計画（機能8)" sheetId="14" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第2スプリント)'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第3スプリント)'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="91">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -698,13 +698,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実施</t>
-    <rPh sb="0" eb="2">
-      <t>ジッセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投稿、表示のコードを一部改善</t>
     <rPh sb="0" eb="1">
       <t>トウコウ</t>
@@ -808,6 +801,17 @@
   </si>
   <si>
     <t>4日</t>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1218,11 +1222,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
@@ -1348,7 +1350,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="20">
+    <row r="9" spans="1:5" ht="35" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -1359,7 +1361,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="20">
+    <row r="10" spans="1:5" ht="35" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -1388,11 +1390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView zoomScale="66" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1439,7 +1439,9 @@
       <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
@@ -1454,7 +1456,9 @@
       <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="9">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -1469,7 +1473,9 @@
       <c r="D5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -1484,7 +1490,9 @@
       <c r="D6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -1499,7 +1507,9 @@
       <c r="D7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8" t="s">
@@ -1514,7 +1524,9 @@
       <c r="D8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="8" t="s">
@@ -1529,7 +1541,9 @@
       <c r="D9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="8"/>
@@ -1563,11 +1577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
-    </sheetView>
+    <sheetView zoomScale="81" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1614,7 +1626,9 @@
       <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
@@ -1629,7 +1643,9 @@
       <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -1644,7 +1660,9 @@
       <c r="D5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -1659,7 +1677,9 @@
       <c r="D6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8"/>
@@ -1714,11 +1734,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3909497-B355-4B79-B191-F012123903EB}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
-    </sheetView>
+    <sheetView zoomScale="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1765,7 +1783,9 @@
       <c r="D3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
@@ -1780,7 +1800,9 @@
       <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -1795,7 +1817,9 @@
       <c r="D5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -1810,7 +1834,9 @@
       <c r="D6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -1825,7 +1851,9 @@
       <c r="D7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8"/>
@@ -1873,11 +1901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67616659-F6AB-4215-8818-4C85054E855C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView zoomScale="68" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -1992,7 +2018,9 @@
       <c r="D7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8"/>
@@ -2040,11 +2068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF85AC0A-0513-4172-A4F6-1851AD384455}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
-    </sheetView>
+    <sheetView zoomScale="73" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -2108,7 +2134,9 @@
       <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -2123,7 +2151,9 @@
       <c r="D5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -2138,7 +2168,9 @@
       <c r="D6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -2153,7 +2185,9 @@
       <c r="D7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8"/>
@@ -2201,11 +2235,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE446DA-80CE-E742-8C38-61D2E9C4938C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView zoomScale="68" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -2269,7 +2301,9 @@
       <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -2284,7 +2318,9 @@
       <c r="D5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -2299,7 +2335,9 @@
       <c r="D6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -2314,7 +2352,9 @@
       <c r="D7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8" t="s">
@@ -2329,7 +2369,9 @@
       <c r="D8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="8"/>
@@ -2370,11 +2412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF442F8-7510-B949-BB4C-22238B1A9E15}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
-    </sheetView>
+    <sheetView zoomScale="82" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -2422,7 +2462,7 @@
         <v>63</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -2438,7 +2478,9 @@
       <c r="D4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -2453,7 +2495,9 @@
       <c r="D5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -2468,7 +2512,9 @@
       <c r="D6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -2483,7 +2529,9 @@
       <c r="D7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8"/>
@@ -2531,11 +2579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17476A41-6442-264C-8BBB-69EADF5DD822}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView zoomScale="68" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
@@ -2574,16 +2620,16 @@
         <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -2591,15 +2637,17 @@
         <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -2612,84 +2660,96 @@
         <v>62</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="8"/>
